--- a/2019-中玺九合工作表-科.xlsx
+++ b/2019-中玺九合工作表-科.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>时间</t>
   </si>
@@ -44,16 +44,19 @@
   <si>
     <t>取消</t>
   </si>
+  <si>
+    <t>大剧院内页导航制作</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,14 +75,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,34 +181,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,75 +210,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,181 +226,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,26 +438,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +479,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -485,26 +505,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,153 +531,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,86 +1037,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>43521</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4">
         <v>0.8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4">
         <v>0.7</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>43522</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="3:8">
       <c r="C6" t="s">
@@ -1113,9 +1125,9 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" t="s">
@@ -1124,12 +1136,33 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5">
+        <v>43523</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1142,6 +1175,8 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
